--- a/spiderShow/static/export/help.xlsx
+++ b/spiderShow/static/export/help.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27125"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="31320" yWindow="1200" windowWidth="28960" windowHeight="18580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="featurelist" sheetId="1" r:id="rId1"/>
+    <sheet name="cpt.xtu.edu.cn" sheetId="2" r:id="rId2"/>
+    <sheet name="bbs.tianya.cn" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">featurelist!$B$2:$F$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">featurelist!$B$2:$G$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,13 +145,45 @@
   <si>
     <t>与去重库匹配的情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/[a-zA-Z]{1,}/[0-9a-zA-Z]{1,}/\d{4}/?\d{4}/\d{1,}.html</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/[a-zA-Z]{1,}/\d{4}\/?\d{4}/\d{1,}.html</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/$</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpt.xtu.edu.cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cpt.xtu.edu.cn/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +224,60 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF183691"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFE6DB74"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +290,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAFFEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBFFDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -210,50 +319,64 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC1E9C1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,9 +405,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="普通 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -417,7 +558,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,7 +593,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,31 +804,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="160" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="160" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="12.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:8">
       <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="2:8" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" s="5" customFormat="1" ht="31.5" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -707,7 +848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="21">
       <c r="B3" s="6">
         <f>ROW()-2</f>
         <v>1</v>
@@ -727,7 +868,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8">
       <c r="B4" s="6">
         <f t="shared" ref="B4:B17" si="0">ROW()-2</f>
         <v>2</v>
@@ -747,7 +888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8">
       <c r="B5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -767,7 +908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8">
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -787,7 +928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8">
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -809,7 +950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" ht="21">
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -827,7 +968,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8">
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -849,7 +990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="21">
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -867,7 +1008,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="21">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -885,7 +1026,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" ht="21">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -903,7 +1044,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" ht="21">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -921,7 +1062,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" ht="21">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -939,7 +1080,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" ht="21">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -959,7 +1100,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" ht="21">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -971,7 +1112,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" ht="21">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -990,7 +1131,196 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A3:C18"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="165.6640625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="165.6640625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/spiderShow/static/export/help.xlsx
+++ b/spiderShow/static/export/help.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27125"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="31320" yWindow="1200" windowWidth="28960" windowHeight="18580" activeTab="2"/>
+    <workbookView xWindow="33540" yWindow="1200" windowWidth="28965" windowHeight="18585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="featurelist" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">featurelist!$B$2:$F$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">featurelist!$B$2:$G$17</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,34 @@
   <si>
     <t>http://cpt.xtu.edu.cn/</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/$</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.tianya.cn/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs.tianya.cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>post-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -399,12 +427,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
@@ -418,14 +440,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -558,7 +586,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,7 +621,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -809,26 +837,26 @@
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="2"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="E1" s="8" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="2:8" s="5" customFormat="1" ht="31.5" customHeight="1">
+    <row r="2" spans="2:8" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -848,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="21">
+    <row r="3" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B3" s="6">
         <f>ROW()-2</f>
         <v>1</v>
@@ -868,7 +896,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="6">
         <f t="shared" ref="B4:B17" si="0">ROW()-2</f>
         <v>2</v>
@@ -888,7 +916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -908,7 +936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -928,7 +956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -950,7 +978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="21">
+    <row r="8" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -968,7 +996,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -990,7 +1018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="21">
+    <row r="10" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1008,7 +1036,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="21">
+    <row r="11" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1026,7 +1054,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:8" ht="21">
+    <row r="12" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1044,7 +1072,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="2:8" ht="21">
+    <row r="13" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1062,7 +1090,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="2:8" ht="21">
+    <row r="14" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1080,7 +1108,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="2:8" ht="21">
+    <row r="15" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1100,7 +1128,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="2:8" ht="21">
+    <row r="16" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1112,7 +1140,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" ht="21">
+    <row r="17" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1131,8 +1159,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1143,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A3:C18"/>
@@ -1152,73 +1180,73 @@
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="165.6640625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="10"/>
+    <col min="1" max="1" width="165.625" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="14" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="11" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1240,76 +1268,78 @@
   <dimension ref="A3:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="165.6640625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="10"/>
+    <col min="1" max="1" width="165.625" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="14" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/spiderShow/static/export/help.xlsx
+++ b/spiderShow/static/export/help.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="33540" yWindow="1200" windowWidth="28965" windowHeight="18585" activeTab="2"/>
+    <workbookView xWindow="1110" yWindow="0" windowWidth="27690" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="featurelist" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="bbs.tianya.cn" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">featurelist!$B$2:$F$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">featurelist!$B$2:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">featurelist!$B$2:$F$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">featurelist!$B$2:$I$18</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,18 +63,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结果展示（列表、详情结果显示）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ver0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,10 +120,6 @@
   </si>
   <si>
     <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -204,6 +192,38 @@
   </si>
   <si>
     <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compose.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotArticle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法试算，结果展示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多用户，配置正则的管理，检索，恢复。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一在多用户功能中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +324,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +372,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -393,6 +435,233 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -404,7 +673,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,9 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -440,11 +706,74 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -472,16 +801,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>144517</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>183931</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>34613</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1340069</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>203637</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>424203</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108387</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -490,8 +819,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7061638" y="3921672"/>
-          <a:ext cx="2331983" cy="308741"/>
+          <a:off x="313036" y="4411566"/>
+          <a:ext cx="3195802" cy="305456"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -830,11 +1159,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="160" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -842,324 +1171,414 @@
     <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="2"/>
+    <col min="4" max="4" width="33.25" style="2" customWidth="1"/>
+    <col min="5" max="8" width="3" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E1" s="15" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F1" s="16"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="2:8" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
+      <c r="G1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="2:10" s="4" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="6">
+      <c r="G2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="22">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="6">
-        <f t="shared" ref="B4:B17" si="0">ROW()-2</f>
+      <c r="D3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="5">
+        <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="6">
+      <c r="D4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="6">
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="6">
+      <c r="D6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="D7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="6">
+      <c r="J7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="6">
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="6">
+      <c r="D9" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="6">
+      <c r="D11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="6">
+      <c r="D12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="6">
+        <v>7</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="6">
+      <c r="D15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="6">
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="5"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F17"/>
-  <mergeCells count="1">
+  <autoFilter ref="B2:F18"/>
+  <mergeCells count="2">
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1177,76 +1596,76 @@
   <dimension ref="A3:C18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="165.625" style="8" customWidth="1"/>
-    <col min="2" max="16384" width="8.875" style="8"/>
+    <col min="1" max="1" width="165.625" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>37</v>
+      <c r="A3" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>36</v>
+      <c r="A4" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>35</v>
+      <c r="A7" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>34</v>
+      <c r="A8" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>33</v>
+      <c r="A9" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>32</v>
+      <c r="A11" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="10"/>
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="8"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1265,81 +1684,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C18"/>
+  <dimension ref="A3:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="165.625" style="8" customWidth="1"/>
-    <col min="2" max="16384" width="8.875" style="8"/>
+    <col min="1" max="1" width="165.625" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/spiderShow/static/export/help.xlsx
+++ b/spiderShow/static/export/help.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="0" windowWidth="27690" windowHeight="14340"/>
+    <workbookView xWindow="2220" yWindow="0" windowWidth="27690" windowHeight="14340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="featurelist" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,22 @@
   </si>
   <si>
     <t>统一在多用户功能中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nextid   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF183691"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下一页</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +356,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF183691"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -709,71 +732,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1161,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
@@ -1178,62 +1201,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="21"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="2:10" s="4" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="32"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1247,15 +1270,15 @@
       <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="33"/>
+      <c r="E4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1271,15 +1294,15 @@
       <c r="D5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1295,15 +1318,15 @@
       <c r="D6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="33"/>
+      <c r="E6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="6" t="s">
         <v>17</v>
       </c>
@@ -1319,15 +1342,15 @@
       <c r="D7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="33" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1345,15 +1368,15 @@
       <c r="D8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="33"/>
+      <c r="E8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1364,18 +1387,18 @@
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="33"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1391,15 +1414,15 @@
       <c r="D10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="33" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="31" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -1417,15 +1440,15 @@
       <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="33"/>
+      <c r="E11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1439,15 +1462,15 @@
       <c r="D12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="33"/>
+      <c r="E12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1461,15 +1484,15 @@
       <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="33" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J13" s="4"/>
@@ -1482,18 +1505,18 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="33"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1507,15 +1530,15 @@
       <c r="D15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="33"/>
+      <c r="E15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1526,18 +1549,18 @@
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="33" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="31" t="s">
         <v>49</v>
       </c>
       <c r="J16" s="4"/>
@@ -1549,11 +1572,11 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="33"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1563,11 +1586,11 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="33"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="4"/>
     </row>
   </sheetData>
@@ -1684,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C19"/>
+  <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,40 +1755,45 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1773,6 +1801,7 @@
     <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/spiderShow/static/export/help.xlsx
+++ b/spiderShow/static/export/help.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="0" windowWidth="27690" windowHeight="14340" activeTab="2"/>
+    <workbookView xWindow="1110" yWindow="0" windowWidth="27690" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="featurelist" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +116,6 @@
   </si>
   <si>
     <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,15 +211,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多用户，配置正则的管理，检索，恢复。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需求待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一在多用户功能中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -240,6 +228,10 @@
       </rPr>
       <t>下一页</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多用户，配置正则的管理，检索。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,9 +1176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1202,11 +1194,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E1" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="36"/>
       <c r="G1" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="36"/>
       <c r="I1" s="19"/>
@@ -1246,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="23" t="s">
@@ -1388,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16" t="s">
@@ -1423,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>17</v>
@@ -1460,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>2</v>
@@ -1482,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="16" t="s">
@@ -1493,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J13" s="4"/>
     </row>
@@ -1546,23 +1538,13 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>2</v>
-      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="31" t="s">
-        <v>49</v>
-      </c>
+      <c r="I16" s="31"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" ht="22.5" x14ac:dyDescent="0.15">
@@ -1630,27 +1612,27 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1658,19 +1640,19 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9"/>
     </row>
@@ -1709,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,37 +1703,37 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1759,31 +1741,31 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">

--- a/spiderShow/static/export/help.xlsx
+++ b/spiderShow/static/export/help.xlsx
@@ -4,16 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="0" windowWidth="27690" windowHeight="14340"/>
+    <workbookView xWindow="2220" yWindow="0" windowWidth="27690" windowHeight="14340" tabRatio="822"/>
   </bookViews>
   <sheets>
     <sheet name="featurelist" sheetId="1" r:id="rId1"/>
     <sheet name="cpt.xtu.edu.cn" sheetId="2" r:id="rId2"/>
     <sheet name="bbs.tianya.cn" sheetId="3" r:id="rId3"/>
+    <sheet name="bbs.hefei.cc" sheetId="5" r:id="rId4"/>
+    <sheet name="news.hefei.cc" sheetId="6" r:id="rId5"/>
+    <sheet name="www.cankaoxiaoxi.com" sheetId="7" r:id="rId6"/>
+    <sheet name="xinwen.eastday.com" sheetId="8" r:id="rId7"/>
+    <sheet name="news.ifeng.com" sheetId="9" r:id="rId8"/>
+    <sheet name="www.iqilu.com" sheetId="10" r:id="rId9"/>
+    <sheet name="www.ccgp.gov.cn" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">featurelist!$B$2:$F$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">featurelist!$B$2:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">featurelist!$B$2:$F$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">featurelist!$B$2:$I$17</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="163">
   <si>
     <t>支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>②显示抓取结果-列表页/详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>②显示抓取结果-过程统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结果展示（列表、详情结果显示）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,10 +115,6 @@
   </si>
   <si>
     <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI完成，算法待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -204,10 +199,6 @@
   </si>
   <si>
     <t>V0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法试算，结果展示。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -231,6 +222,499 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>thread-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>forum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.hefei.cc/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs.hefei.cc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻热词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.hefei.cc/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.hefei.cc/L/174.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cankaoxiaoxi.com/china/szyw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xinwen.eastday.com/mainland.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xinwen.eastday.com/a/160801090559102.html</t>
+  </si>
+  <si>
+    <t>http://xinwen.eastday.com/history.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xinwen.eastday.com/a/160802090733084-2.html</t>
+  </si>
+  <si>
+    <t>http://xinwen.eastday.com/listpage/mainland.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xinwen.eastday.com/listpage/mainland-2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xinwen.eastday.com/astro.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/listpage/71092/2/1/49363021/list.shtml</t>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/listpage/33984/2/1/48751723/list.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.iqilu.com/guoji/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.iqilu.com/guoji/list_11_2.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.iqilu.com/html/life/wenxiaodian/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.iqilu.com/shandong/yuanchuang/list_564_2.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccgp.gov.cn/zcfg/zswd/zfcgfs/201310/t20131029_3587744.htm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccgp.gov.cn/zycg/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccgp.gov.cn/dfcg/llsw/index_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccgp.gov.cn/news/201608/t20160801_7127371.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccgp.gov.cn/cggg/dfgg/gkzb/index_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccgp.gov.cn/ppp/pppgzgg/index_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.hefei.cc/home.php?do=wall&amp;mod=space&amp;uid=1136469</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bbs.hefei.cc/forum.php?goto=findpost&amp;mod=redirect&amp;pid=177340670&amp;ptid=16593104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>redirect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详情</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.hefei.cc/2016/0801/026577273.shtml</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.hefei.cc/s/%D6%DC%D1%D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.hefei.cc/L/12010800_2.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/$</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/s\/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/L/\d{1,}\.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search\.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/\d{4}\/\d{4}\/\d{1,}\.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/\d{4}/\d{4}/\d{1,}_\d{1,}\.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/L\/\d{1,}_\d{1,}\.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://news.hefei.cc/search.php?SegWord=</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合肥警察</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.hefei.cc/L/12020100_1281.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news.hefei.cc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cankaoxiaoxi.com/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cankaoxiaoxi.com/world/20160801/1252957_2.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://column.cankaoxiaoxi.com/2016/0721/1239660.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cankaoxiaoxi.com/world/20160801/1252957.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cankaoxiaoxi.com/china/szyw/2.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/[a-zA-Z]{1,}/\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/\d{8}/\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/\d{4}/?\d{4}/\d{1,}/?\d{1,}_?\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://photo.cankaoxiaoxi.com/roll10/2016/0728/1248338.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cankaoxiaoxi.com/pic/show/255412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}/\d{4}/?\d{4}/\d{1,}_?\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/\d{1,}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cankaoxiaoxi.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xinwen.eastday.com/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xinwen.eastday.com/a/n160802090300278-2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xinwen.eastday.com/a/n160802090300278.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/a/n?\d{1,}-?\d{1,}.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/a/n?\d{1,}-?\d{1,}.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/a/n?\d{1,}-?\d{1,}.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}-?\d{1,}.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinwen.eastday.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/opinion/fenghuanglun/186/1.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/listpage/71092/1/list.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/listpage/71092/3/1/49363021/49700062/list.shtml</t>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/o/dynpage/48-/1/plist.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pit.ifeng.com/event/bigstory/index.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/listpage/71092/2/list.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/listpage/71092/2/1/49363021/list.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/a/20160728/49679130_0.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/a/\d{8}/\d{1,}_?\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>news.ifeng.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opinion/special/list_0/1.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/a/20150902/44572324_0.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/history/jiaokeshuzhenxiang/detail_2011_05/05/6189340_0.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/a/20160801/49700062_0.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/archive/1298913_201507.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}/\d{1,}[/|_]?\d{1,}.s?html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloghistory.news.ifeng.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/history/shijieshi/special/tydhywzsdszjm/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/history/1/midang/200905/0512_2664_1150605.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}/\d{1,}[/|_]?\d{1,}.s?html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/$</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\d{1,}_\d{1,}_\d{1,}_\d{1,}.s?html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d{1,}_d{1,}_d{1,}.s?html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.iqilu.com/html/life/wenxiaodian/2.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.iqilu.com/shandong/yuanchuang/2016/0802/2940542.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.iqilu.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>news.iqilu.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/\d{4}/\d{4}/\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_\d{1,}.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccgp.gov.cn/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccgp.gov.cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>search.ccgp.gov.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_\d{1,}.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②显示抓取结果-后台log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log结果展示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>多用户，配置正则的管理，检索。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,7 +723,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +839,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -688,7 +1180,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,6 +1281,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -818,13 +1326,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>34613</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>139970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>424203</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>108387</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -864,15 +1372,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>不支持</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>IE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>浏览器，请使用</a:t>
+            <a:t>必须使用</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -1174,11 +1674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J18"/>
+  <dimension ref="B1:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1194,11 +1694,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E1" s="35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F1" s="36"/>
       <c r="G1" s="35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H1" s="36"/>
       <c r="I1" s="19"/>
@@ -1208,10 +1708,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>0</v>
@@ -1226,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1238,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="23" t="s">
@@ -1253,14 +1753,14 @@
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="5">
-        <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B17" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>2</v>
@@ -1272,7 +1772,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="31"/>
       <c r="J4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1284,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>2</v>
@@ -1296,7 +1796,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="31"/>
       <c r="J5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1308,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>2</v>
@@ -1320,7 +1820,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="31"/>
       <c r="J6" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1332,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="16" t="s">
@@ -1343,10 +1843,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1358,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>2</v>
@@ -1377,10 +1877,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>45</v>
+        <v>160</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16" t="s">
@@ -1392,7 +1892,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="31"/>
       <c r="J9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1404,22 +1904,18 @@
         <v>5</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5">
@@ -1427,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>21</v>
@@ -1449,20 +1945,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="31"/>
+      <c r="I12" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1473,20 +1971,18 @@
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>25</v>
+      <c r="D13" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="31" t="s">
-        <v>46</v>
-      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1497,14 +1993,14 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H14" s="16"/>
@@ -1516,24 +2012,16 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>2</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="15" t="s">
-        <v>2</v>
-      </c>
+      <c r="G15" s="32"/>
       <c r="H15" s="16"/>
       <c r="I15" s="31"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1542,41 +2030,27 @@
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="32"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="I16" s="31"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="31"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:F18"/>
+  <autoFilter ref="B2:F17"/>
   <mergeCells count="2">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -1593,6 +2067,169 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D23"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="38"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2" display="www.ccgp.gov.cn"/>
+    <hyperlink ref="A17" r:id="rId3"/>
+    <hyperlink ref="A11" r:id="rId4"/>
+    <hyperlink ref="A12" r:id="rId5"/>
+    <hyperlink ref="A18" r:id="rId6"/>
+    <hyperlink ref="A13" r:id="rId7"/>
+    <hyperlink ref="A5" r:id="rId8" display="http://search.ccgp.gov.cn/"/>
+    <hyperlink ref="A14" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -1600,8 +2237,8 @@
   </sheetPr>
   <dimension ref="A3:C18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,27 +2249,27 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1640,19 +2277,19 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="9"/>
     </row>
@@ -1691,7 +2328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1703,37 +2340,37 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,31 +2378,31 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1790,4 +2427,970 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A9" r:id="rId3"/>
+    <hyperlink ref="A10" r:id="rId4"/>
+    <hyperlink ref="A11" r:id="rId5"/>
+    <hyperlink ref="A12" r:id="rId6"/>
+    <hyperlink ref="A13" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55" style="7" customWidth="1"/>
+    <col min="2" max="2" width="49.125" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="38"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="37"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2" display="www.cankaoxiaoxi.com"/>
+    <hyperlink ref="A15" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A10" r:id="rId5"/>
+    <hyperlink ref="A16" r:id="rId6"/>
+    <hyperlink ref="A17" r:id="rId7"/>
+    <hyperlink ref="A18" r:id="rId8"/>
+    <hyperlink ref="A19" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.375" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A9" r:id="rId2"/>
+    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A11" r:id="rId4"/>
+    <hyperlink ref="A12" r:id="rId5"/>
+    <hyperlink ref="A13" r:id="rId6"/>
+    <hyperlink ref="A21" r:id="rId7"/>
+    <hyperlink ref="A22" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A3:C39"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="58" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="38"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="37"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://news.ifeng.com"/>
+    <hyperlink ref="A16" r:id="rId3"/>
+    <hyperlink ref="A21" r:id="rId4"/>
+    <hyperlink ref="A14" r:id="rId5"/>
+    <hyperlink ref="A11" r:id="rId6"/>
+    <hyperlink ref="A12" r:id="rId7"/>
+    <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A13" r:id="rId9"/>
+    <hyperlink ref="A22" r:id="rId10"/>
+    <hyperlink ref="A23" r:id="rId11"/>
+    <hyperlink ref="A24" r:id="rId12"/>
+    <hyperlink ref="A20" r:id="rId13"/>
+    <hyperlink ref="A25" r:id="rId14"/>
+    <hyperlink ref="A26" r:id="rId15"/>
+    <hyperlink ref="A27" r:id="rId16"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C23"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="68.875" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="38"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId2"/>
+    <hyperlink ref="A12" r:id="rId3"/>
+    <hyperlink ref="A13" r:id="rId4"/>
+    <hyperlink ref="A14" r:id="rId5"/>
+    <hyperlink ref="A4" r:id="rId6" display="http://news.iqilu.com/"/>
+    <hyperlink ref="A15" r:id="rId7"/>
+    <hyperlink ref="A20" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
+</worksheet>
 </file>
--- a/spiderShow/static/export/help.xlsx
+++ b/spiderShow/static/export/help.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="0" windowWidth="27690" windowHeight="14340" tabRatio="822"/>
+    <workbookView xWindow="5550" yWindow="0" windowWidth="27690" windowHeight="14340" tabRatio="822" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="featurelist" sheetId="1" r:id="rId1"/>
     <sheet name="cpt.xtu.edu.cn" sheetId="2" r:id="rId2"/>
     <sheet name="bbs.tianya.cn" sheetId="3" r:id="rId3"/>
-    <sheet name="bbs.hefei.cc" sheetId="5" r:id="rId4"/>
-    <sheet name="news.hefei.cc" sheetId="6" r:id="rId5"/>
-    <sheet name="www.cankaoxiaoxi.com" sheetId="7" r:id="rId6"/>
-    <sheet name="xinwen.eastday.com" sheetId="8" r:id="rId7"/>
-    <sheet name="news.ifeng.com" sheetId="9" r:id="rId8"/>
-    <sheet name="www.iqilu.com" sheetId="10" r:id="rId9"/>
-    <sheet name="www.ccgp.gov.cn" sheetId="11" r:id="rId10"/>
+    <sheet name="www.cxljl.cn" sheetId="13" r:id="rId4"/>
+    <sheet name="bbs.hefei.cc" sheetId="5" r:id="rId5"/>
+    <sheet name="news.hefei.cc" sheetId="6" r:id="rId6"/>
+    <sheet name="www.cankaoxiaoxi.com" sheetId="7" r:id="rId7"/>
+    <sheet name="xinwen.eastday.com" sheetId="8" r:id="rId8"/>
+    <sheet name="news.ifeng.com" sheetId="9" r:id="rId9"/>
+    <sheet name="www.iqilu.com" sheetId="10" r:id="rId10"/>
+    <sheet name="www.ccgp.gov.cn" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">featurelist!$B$2:$F$17</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="173">
   <si>
     <t>支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,27 +159,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>\/$</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bbs.tianya.cn/</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>bbs.tianya.cn</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>post-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic-</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -226,10 +211,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>forum</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://bbs.hefei.cc/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -240,10 +221,6 @@
   <si>
     <t>新闻热词</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.hefei.cc/</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>http://news.hefei.cc/L/174.shtml</t>
@@ -379,35 +356,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\/$</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>检索词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\/s\/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\/L/\d{1,}\.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search\.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\/\d{4}\/\d{4}\/\d{1,}\.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\/\d{4}/\d{4}/\d{1,}_\d{1,}\.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\/L\/\d{1,}_\d{1,}\.shtml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -432,290 +385,378 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://www.cankaoxiaoxi.com/world/20160801/1252957_2.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://column.cankaoxiaoxi.com/2016/0721/1239660.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cankaoxiaoxi.com/world/20160801/1252957.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cankaoxiaoxi.com/china/szyw/2.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/\d{8}/\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/\d{4}/?\d{4}/\d{1,}/?\d{1,}_?\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://photo.cankaoxiaoxi.com/roll10/2016/0728/1248338.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cankaoxiaoxi.com/pic/show/255412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xinwen.eastday.com/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xinwen.eastday.com/a/n160802090300278-2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xinwen.eastday.com/a/n160802090300278.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/a/n?\d{1,}-?\d{1,}.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/a/n?\d{1,}-?\d{1,}.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/a/n?\d{1,}-?\d{1,}.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}-?\d{1,}.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinwen.eastday.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/opinion/fenghuanglun/186/1.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/listpage/71092/1/list.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/listpage/71092/3/1/49363021/49700062/list.shtml</t>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/o/dynpage/48-/1/plist.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pit.ifeng.com/event/bigstory/index.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/listpage/71092/2/list.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/listpage/71092/2/1/49363021/list.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/a/20160728/49679130_0.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/a/\d{8}/\d{1,}_?\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>news.ifeng.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opinion/special/list_0/1.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/a/20150902/44572324_0.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/history/jiaokeshuzhenxiang/detail_2011_05/05/6189340_0.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/a/20160801/49700062_0.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/archive/1298913_201507.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}/\d{1,}[/|_]?\d{1,}.s?html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloghistory.news.ifeng.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/history/shijieshi/special/tydhywzsdszjm/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.ifeng.com/history/1/midang/200905/0512_2664_1150605.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}/\d{1,}[/|_]?\d{1,}.s?html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/$</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\d{1,}_\d{1,}_\d{1,}_\d{1,}.s?html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d{1,}_d{1,}_d{1,}.s?html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.iqilu.com/html/life/wenxiaodian/2.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.iqilu.com/shandong/yuanchuang/2016/0802/2940542.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.iqilu.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>news.iqilu.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/\d{4}/\d{4}/\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_\d{1,}.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccgp.gov.cn/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccgp.gov.cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>search.ccgp.gov.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_\d{1,}.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②显示抓取结果-后台log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log结果展示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多用户，配置正则的管理，检索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/$</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>forum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>news.hefei.cc</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>\/$</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/^\/s\//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/L/\d{1,}\.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /^\/\d{4}/\d{4}/\d{1,}_\d{1,}\.shtml/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /^search.php/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /^\/L\/\d{1,}_\d{1,}\.shtml/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.hefei.cc/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.cankaoxiaoxi.com/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.cankaoxiaoxi.com/world/20160801/1252957_2.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://column.cankaoxiaoxi.com/2016/0721/1239660.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cankaoxiaoxi.com/world/20160801/1252957.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cankaoxiaoxi.com/china/szyw/2.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/[a-zA-Z]{1,}/[a-zA-Z]{1,}/\d{1,}.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\/$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/[a-zA-Z]{1,}/\d{8}/\d{1,}.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/[a-zA-Z]{1,}/\d{1,}.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/\d{4}/?\d{4}/\d{1,}/?\d{1,}_?\d{1,}.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://photo.cankaoxiaoxi.com/roll10/2016/0728/1248338.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cankaoxiaoxi.com/pic/show/255412</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}/\d{4}/?\d{4}/\d{1,}_?\d{1,}.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/[a-zA-Z]{1,}/\d{1,}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cankaoxiaoxi.com</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://xinwen.eastday.com/</t>
+    <t>/[a-zA-Z]{1,}/\d{1,}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/^/[a-zA-Z]{1,}/[a-zA-Z]{1,}/\d{1,}.shtml/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}/\d{4}/?\d{4}/\d{1,}_?\d{1,}.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic-</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://xinwen.eastday.com/a/n160802090300278-2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://xinwen.eastday.com/a/n160802090300278.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/a/n?\d{1,}-?\d{1,}.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/a/n?\d{1,}-?\d{1,}.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/a/n?\d{1,}-?\d{1,}.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}-?\d{1,}.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xinwen.eastday.com</t>
+    <t>http://bbs.tianya.cn/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://news.ifeng.com/opinion/fenghuanglun/186/1.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.ifeng.com/listpage/71092/1/list.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.ifeng.com/listpage/71092/3/1/49363021/49700062/list.shtml</t>
-  </si>
-  <si>
-    <t>http://news.ifeng.com/o/dynpage/48-/1/plist.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://pit.ifeng.com/event/bigstory/index.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.ifeng.com/listpage/71092/2/list.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.ifeng.com/listpage/71092/2/1/49363021/list.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.ifeng.com/a/20160728/49679130_0.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/a/\d{8}/\d{1,}_?\d{1,}.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.ifeng.com/</t>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cxljl.cn/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>news.ifeng.com</t>
+    <t>www.cxljl.cn</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>/opinion/special/list_0/1.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.ifeng.com/a/20150902/44572324_0.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.ifeng.com/history/jiaokeshuzhenxiang/detail_2011_05/05/6189340_0.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.ifeng.com/a/20160801/49700062_0.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.ifeng.com/archive/1298913_201507.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}/\d{1,}[/|_]?\d{1,}.s?html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bloghistory.news.ifeng.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.ifeng.com/history/shijieshi/special/tydhywzsdszjm/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.ifeng.com/history/1/midang/200905/0512_2664_1150605.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/[a-zA-Z]{1,}/?[a-zA-Z]{1,}/\d{1,}[/|_]?\d{1,}.s?html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\/$</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>\d{1,}_\d{1,}_\d{1,}_\d{1,}.s?html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d{1,}_d{1,}_d{1,}.s?html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\/$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.iqilu.com/html/life/wenxiaodian/2.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\d{1,}.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.iqilu.com/shandong/yuanchuang/2016/0802/2940542.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.iqilu.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>news.iqilu.com</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>\/$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/\d{4}/\d{4}/\d{1,}.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_\d{1,}.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ccgp.gov.cn/</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccgp.gov.cn</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>search.ccgp.gov.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_\d{1,}.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>②显示抓取结果-后台log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log结果展示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多用户，配置正则的管理，检索。</t>
+    <t>blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1276,12 +1317,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1297,6 +1332,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1676,7 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="160" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
@@ -1693,14 +1734,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="36"/>
+      <c r="E1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="44"/>
       <c r="I1" s="19"/>
     </row>
     <row r="2" spans="2:10" s="4" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1738,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="23" t="s">
@@ -1877,10 +1918,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16" t="s">
@@ -1959,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J12" s="4"/>
     </row>
@@ -2069,10 +2110,157 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C23"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="68.875" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="36"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId2"/>
+    <hyperlink ref="A12" r:id="rId3"/>
+    <hyperlink ref="A13" r:id="rId4"/>
+    <hyperlink ref="A14" r:id="rId5"/>
+    <hyperlink ref="A4" r:id="rId6" display="http://news.iqilu.com/"/>
+    <hyperlink ref="A15" r:id="rId7"/>
+    <hyperlink ref="A20" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,23 +2272,23 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="38"/>
+      <c r="A4" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40" t="s">
-        <v>72</v>
+      <c r="A5" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2122,49 +2310,49 @@
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>152</v>
+      <c r="A11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>159</v>
+      <c r="A12" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>155</v>
+      <c r="A13" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>137</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>155</v>
+      <c r="A14" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>137</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -2173,21 +2361,21 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>155</v>
+      <c r="A17" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>137</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>155</v>
+      <c r="A18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>137</v>
       </c>
       <c r="C18" s="9"/>
     </row>
@@ -2329,7 +2517,7 @@
   <dimension ref="A3:C20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,12 +2528,12 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2355,22 +2543,22 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2383,26 +2571,26 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2431,10 +2619,148 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="55" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,12 +2771,12 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2460,28 +2786,28 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>74</v>
+      <c r="A10" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>76</v>
+      <c r="A11" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2494,7 +2820,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2531,30 +2857,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="44.75" style="7" customWidth="1"/>
     <col min="3" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="B4" s="12"/>
     </row>
@@ -2566,63 +2892,65 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="8"/>
+        <v>148</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>48</v>
+      <c r="A9" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>84</v>
+      <c r="A10" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>51</v>
+      <c r="A11" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>82</v>
+      <c r="A12" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>51</v>
+      <c r="A13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2632,11 +2960,11 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>86</v>
+      <c r="A15" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,12 +3007,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2696,15 +3024,15 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="38"/>
+      <c r="A4" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="36"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -2719,37 +3047,37 @@
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>98</v>
+      <c r="A9" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>97</v>
+      <c r="A10" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>159</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="37"/>
+      <c r="A11" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -2758,51 +3086,51 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>100</v>
+      <c r="A15" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>99</v>
+      <c r="A16" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>101</v>
+      <c r="A17" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>105</v>
+      <c r="A18" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>160</v>
       </c>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>103</v>
+      <c r="A19" s="35" t="s">
+        <v>88</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>104</v>
+        <v>158</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2832,12 +3160,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,13 +3177,13 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B4" s="12"/>
     </row>
@@ -2872,55 +3200,55 @@
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>110</v>
+      <c r="B13" s="35" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -2938,34 +3266,34 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>111</v>
+      <c r="A21" s="35" t="s">
+        <v>93</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>112</v>
+      <c r="A22" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2985,7 +3313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2993,7 +3321,7 @@
   <dimension ref="A3:C39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,19 +3333,19 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="38"/>
+      <c r="A4" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>136</v>
+      <c r="A5" s="39" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3028,83 +3356,83 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>123</v>
+      <c r="A10" s="35" t="s">
+        <v>105</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>121</v>
+      <c r="A11" s="35" t="s">
+        <v>103</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>122</v>
+      <c r="A12" s="35" t="s">
+        <v>104</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="40" t="s">
-        <v>51</v>
+      <c r="A13" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="38" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="37"/>
+      <c r="A14" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="35"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="40" t="s">
-        <v>51</v>
+      <c r="A15" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="38" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="40" t="s">
-        <v>51</v>
+      <c r="A16" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="38" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="40" t="s">
-        <v>51</v>
+      <c r="A17" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="38" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -3113,114 +3441,114 @@
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>133</v>
+      <c r="A20" s="35" t="s">
+        <v>115</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="8" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="8"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="8"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="8"/>
     </row>
   </sheetData>
@@ -3246,151 +3574,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C23"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="62.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="68.875" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="38"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A11" r:id="rId2"/>
-    <hyperlink ref="A12" r:id="rId3"/>
-    <hyperlink ref="A13" r:id="rId4"/>
-    <hyperlink ref="A14" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6" display="http://news.iqilu.com/"/>
-    <hyperlink ref="A15" r:id="rId7"/>
-    <hyperlink ref="A20" r:id="rId8"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
-</worksheet>
 </file>